--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alibugraoglu/Desktop/❤️CYDEO❤️/😎Test Automation😶‍🌫️/👀Selenium Automation/Apache Poi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4C3CF81-22FB-CD4F-A88F-4C625292BDAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CCEFB2C-13A4-6B43-AC57-D079597FBA84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16400" xr2:uid="{EE1EC5B2-AF23-644D-AC3E-547D1ECAE129}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16380" xr2:uid="{EE1EC5B2-AF23-644D-AC3E-547D1ECAE129}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Employees" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,6 +33,65 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ali </t>
+  </si>
+  <si>
+    <t>Can</t>
+  </si>
+  <si>
+    <t>SM</t>
+  </si>
+  <si>
+    <t>Vinod</t>
+  </si>
+  <si>
+    <t>Kummar</t>
+  </si>
+  <si>
+    <t>PO</t>
+  </si>
+  <si>
+    <t>JobTitle</t>
+  </si>
+  <si>
+    <t>Mansoor</t>
+  </si>
+  <si>
+    <t>Yavas</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Irfan </t>
+  </si>
+  <si>
+    <t>Azim</t>
+  </si>
+  <si>
+    <t>Developer</t>
+  </si>
+  <si>
+    <t>Mustafa</t>
+  </si>
+  <si>
+    <t>Ulusoy</t>
+  </si>
+  <si>
+    <t>SDET</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -382,14 +441,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5487C2F9-5DBC-DE4C-9E45-0EDB7035D0BC}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/SampleData.xlsx
+++ b/SampleData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alibugraoglu/Desktop/❤️CYDEO❤️/😎Test Automation😶‍🌫️/👀Selenium Automation/Apache Poi/"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>FirstName</t>
   </si>
@@ -90,12 +90,16 @@
   </si>
   <si>
     <t>SDET</t>
+  </si>
+  <si>
+    <t>Salary</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -441,7 +445,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5487C2F9-5DBC-DE4C-9E45-0EDB7035D0BC}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="230" zoomScaleNormal="230" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
@@ -450,68 +454,83 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>8</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>4</v>
+      </c>
+      <c r="D2" t="n" s="0">
+        <v>200000.0</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="s" s="0">
         <v>7</v>
+      </c>
+      <c r="D3" t="n" s="0">
+        <v>110000.0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="s" s="0">
         <v>11</v>
+      </c>
+      <c r="D4" t="n" s="0">
+        <v>135000.0</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="s" s="0">
         <v>14</v>
+      </c>
+      <c r="D5" t="n" s="0">
+        <v>125000.0</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" t="s" s="0">
         <v>17</v>
       </c>
     </row>
